--- a/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ActionEventConfig.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72CAB8-7618-4C1D-94A3-80872F2A36A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="#说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -39,9 +32,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>ActionEventType</t>
   </si>
   <si>
@@ -78,9 +68,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>事件类型</t>
   </si>
   <si>
@@ -90,29 +77,41 @@
     <t>参数</t>
   </si>
   <si>
-    <t>normal bullet</t>
-  </si>
-  <si>
-    <t>emit a bullet</t>
-  </si>
-  <si>
     <t>RangeDamage</t>
   </si>
   <si>
     <t>Bullet</t>
+  </si>
+  <si>
+    <t>范围伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,151 +153,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,194 +188,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -521,332 +212,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1133,32 +543,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="14.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="21.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1177,19 +586,16 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -1200,97 +606,135 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="13.5" spans="2:7">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1102</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="13.5" spans="2:7">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1103</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
-        <v>5001</v>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>1104</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:13">
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1300,7 +744,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="6:13">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1310,7 +754,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="6:13">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1320,7 +764,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="6:13">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1330,7 +774,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="6:13">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1340,7 +784,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="6:13">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1350,7 +794,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="6:13">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1360,7 +804,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="6:13">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1370,7 +814,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="6:13">
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1380,7 +824,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="6:13">
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1390,7 +834,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="6:13">
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1400,7 +844,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="6:13">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1410,7 +854,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="6:13">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1420,7 +864,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="6:13">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1430,7 +874,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="6:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1440,7 +884,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1450,7 +894,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1460,7 +904,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1470,7 +914,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1480,7 +924,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1490,7 +934,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1500,7 +944,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1510,7 +954,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1520,7 +964,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1530,7 +974,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="6:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1540,7 +984,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1554,7 +998,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1568,7 +1012,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1582,7 +1026,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1596,7 +1040,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1610,7 +1054,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1624,7 +1068,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1639,8 +1083,8 @@
       <c r="M34" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>